--- a/outputs-HGR-r202/o__Tissierellales.xlsx
+++ b/outputs-HGR-r202/o__Tissierellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,26 +519,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19787_1.fa</t>
+          <t>even_MAG-GUT5258.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.998628069733821</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="C3" t="n">
-        <v>1.25596651735127e-06</v>
+        <v>2.476876221665816e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001351338461883563</v>
+        <v>0.0006093971880639737</v>
       </c>
       <c r="E3" t="n">
-        <v>2.219855379298632e-14</v>
+        <v>2.219952213447342e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>1.933583775575275e-05</v>
+        <v>0.00310446414022254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.998628069733821</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,26 +554,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19787_2.fa</t>
+          <t>even_MAG-GUT91256.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999365598485397</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="C4" t="n">
-        <v>9.687410767638465e-07</v>
+        <v>4.165575041322913e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006238079532521878</v>
+        <v>1.754568398919589e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220177996921605e-14</v>
+        <v>2.220445943010059e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>9.624820251887344e-06</v>
+        <v>4.420859322658218e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0.999365598485397</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,26 +589,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5258_1.fa</t>
+          <t>even_MAG-GUT91291.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9950500993389054</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="C5" t="n">
-        <v>3.113648689689195e-06</v>
+        <v>5.922285073790967e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004502919400696958</v>
+        <v>0.0009125964393434706</v>
       </c>
       <c r="E5" t="n">
-        <v>3.088945691211651e-14</v>
+        <v>2.220122238265562e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004496495072304305</v>
+        <v>5.38490052976206e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9950500993389054</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,26 +624,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256.fa</t>
+          <t>even_MAG-GUT91631.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9960809291562052</v>
       </c>
       <c r="C6" t="n">
-        <v>4.165575041322913e-07</v>
+        <v>1.506028329016479e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.754568398919589e-06</v>
+        <v>0.003905708854520947</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220445943010059e-14</v>
+        <v>2.219845829901428e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>4.420859322658218e-07</v>
+        <v>1.185596092277394e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9960809291562052</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,26 +659,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256_1.fa</t>
+          <t>even_MAG-GUT91672.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99999542731221</v>
+        <v>0.9999981076734737</v>
       </c>
       <c r="C7" t="n">
-        <v>7.766705561956466e-07</v>
+        <v>9.347136063404921e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>2.626729142463573e-06</v>
+        <v>1.667058982821181e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445926931237e-14</v>
+        <v>2.22044546734056e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>1.169288069029603e-06</v>
+        <v>1.317961607973203e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>0.99999542731221</v>
+        <v>0.9999981076734737</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,26 +694,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256_2.fa</t>
+          <t>even_MAG-GUT91675.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999970875019586</v>
+        <v>0.9999994315856907</v>
       </c>
       <c r="C8" t="n">
-        <v>5.732477578777762e-07</v>
+        <v>8.294075811140223e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>1.690470937750534e-06</v>
+        <v>3.715505114134382e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220445719247828e-14</v>
+        <v>2.220446008079375e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>6.48779323564795e-07</v>
+        <v>1.139230174586238e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999970875019586</v>
+        <v>0.9999994315856907</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -721,426 +721,6 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91291.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9990760963750309</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.922285073790967e-06</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0009125964393434706</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.220122238265562e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.38490052976206e-06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9990760963750309</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91291_1.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9993143540504579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.959825650700754e-06</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0006684893974548699</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.220227752305677e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.196726414291152e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9993143540504579</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91291_2.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9982894294652016</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.849059931807833e-05</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001679174361329918</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.219850389525129e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.290557412836644e-05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9982894294652016</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91631.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9960809291562052</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.506028329016479e-06</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.003905708854520947</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.219845829901428e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.185596092277394e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9960809291562052</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91631_1.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9950797713383752</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.0665213435675e-06</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.004883969231675583</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.219851330445552e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.219290858345222e-05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9950797713383752</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91631_2.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9961427573008941</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.543002638067514e-06</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.003838867256092503</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.219849327007338e-14</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.583244035310386e-05</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9961427573008941</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91672.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9999981076734737</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.347136063404921e-08</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.667058982821181e-06</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.22044546734056e-14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.317961607973203e-07</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9999981076734737</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91672_1.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9999974398493658</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.399393835524525e-07</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.151866237846506e-06</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.220445190453372e-14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.683449905712297e-07</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9999974398493658</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91672_2.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9999978813228904</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.718423001832069e-07</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.66610881428345e-06</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.220445505558628e-14</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.807259729533679e-07</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9999978813228904</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91675.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9999994315856907</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.294075811140223e-08</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.715505114134382e-07</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.220446008079375e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.139230174586238e-07</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.9999994315856907</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91675_1.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9999991724573712</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.410705166142849e-07</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.098850615913171e-07</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.220445908345007e-14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.765870282652329e-07</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.9999991724573712</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91675_2.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9999991464279431</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.63573794873759e-07</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.743942863840584e-07</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.220446044344904e-14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.156039534756758e-07</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9999991464279431</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>f__Peptoniphilaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Tissierellales.xlsx
+++ b/outputs-HGR-r202/o__Tissierellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>f__Tissierellaceae</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Tissierellaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>f__Peptoniphilaceae</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -771,6 +821,11 @@
         <v>0.9999994315856907</v>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>f__Peptoniphilaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Tissierellales.xlsx
+++ b/outputs-HGR-r202/o__Tissierellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,26 +519,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46257.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7536038566931962</v>
+        <v>0.9950079648239014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003767294941136923</v>
+        <v>2.45729303589972e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1956343371658139</v>
+        <v>0.003850736672401021</v>
       </c>
       <c r="E3" t="n">
-        <v>9.047905701185539e-14</v>
+        <v>2.21999467764649e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04699451119976265</v>
+        <v>0.001116725573316204</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7536038566931962</v>
+        <v>0.9950079648239014</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -547,33 +547,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae(reject)</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5258.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9962836617954696</v>
+        <v>0.5190777206823617</v>
       </c>
       <c r="C4" t="n">
-        <v>2.476876221665816e-06</v>
+        <v>0.2904083968279392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006093971880639737</v>
+        <v>0.0008557517582532601</v>
       </c>
       <c r="E4" t="n">
-        <v>2.219952213447342e-14</v>
+        <v>5.193396202267525e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00310446414022254</v>
+        <v>0.1896581307309267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9962836617954696</v>
+        <v>0.5190777206823617</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -582,68 +582,68 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Peptoniphilaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53617.fa</t>
+          <t>even_MAG-GUT5258.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1895421429487937</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3120716722464417</v>
+        <v>2.476876221665816e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09787677602206254</v>
+        <v>0.0006093971880639737</v>
       </c>
       <c r="E5" t="n">
-        <v>2.893217115773825e-13</v>
+        <v>2.219952213447342e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4005094087824126</v>
+        <v>0.00310446414022254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4005094087824126</v>
+        <v>0.9962836617954696</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>f__Tissierellaceae</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>f__Tissierellaceae(reject)</t>
+          <t>f__Peptoniphilaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7066.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9963811762918342</v>
+        <v>0.9979064276140123</v>
       </c>
       <c r="C6" t="n">
-        <v>7.950957184378886e-06</v>
+        <v>8.073351499961667e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002077832345509001</v>
+        <v>0.001722131690025905</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220071183518045e-14</v>
+        <v>2.219857605396516e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00153304040545024</v>
+        <v>0.0003633673444395156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9963811762918342</v>
+        <v>0.9979064276140123</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,26 +659,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91256.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9956913986028839</v>
       </c>
       <c r="C7" t="n">
-        <v>4.165575041322913e-07</v>
+        <v>8.239887700911545e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1.754568398919589e-06</v>
+        <v>0.004177469353394843</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445943010059e-14</v>
+        <v>2.219872620794984e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>4.420859322658218e-07</v>
+        <v>0.0001303080549290625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999973867881425</v>
+        <v>0.9956913986028839</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,61 +694,61 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91291.fa</t>
+          <t>even_MAG-GUT88709.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990760963750309</v>
+        <v>0.4741841439919613</v>
       </c>
       <c r="C8" t="n">
-        <v>5.922285073790967e-06</v>
+        <v>2.73130476736386e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009125964393434706</v>
+        <v>0.5257728302963622</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220122238265562e-14</v>
+        <v>2.28873607209728e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>5.38490052976206e-06</v>
+        <v>4.029417803531819e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9990760963750309</v>
+        <v>0.5257728302963622</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Sporanaerobacteraceae</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>f__Peptoniphilaceae</t>
+          <t>f__Sporanaerobacteraceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91631.fa</t>
+          <t>even_MAG-GUT91256.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9960809291562052</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="C9" t="n">
-        <v>1.506028329016479e-06</v>
+        <v>4.165575041322913e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003905708854520947</v>
+        <v>1.754568398919589e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>2.219845829901428e-14</v>
+        <v>2.220445943010059e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>1.185596092277394e-05</v>
+        <v>4.420859322658218e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9960809291562052</v>
+        <v>0.9999973867881425</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,26 +764,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91672.fa</t>
+          <t>even_MAG-GUT91291.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999981076734737</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="C10" t="n">
-        <v>9.347136063404921e-08</v>
+        <v>5.922285073790967e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>1.667058982821181e-06</v>
+        <v>0.0009125964393434706</v>
       </c>
       <c r="E10" t="n">
-        <v>2.22044546734056e-14</v>
+        <v>2.220122238265562e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>1.317961607973203e-07</v>
+        <v>5.38490052976206e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999981076734737</v>
+        <v>0.9990760963750309</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,35 +799,175 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91328.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9964138112626825</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.154560353992336e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.003448180833658645</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.219875564631368e-14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0001368533432825453</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9964138112626825</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91345.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4257133207930784</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2459000403154091</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01272325994308441</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.207746760317836e-12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3156633789472204</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4257133207930784</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91672.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999981076734737</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.347136063404921e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.667058982821181e-06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.22044546734056e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.317961607973203e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9999981076734737</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91675.fa</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>0.9999994315856907</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>8.294075811140223e-08</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>3.715505114134382e-07</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E14" t="n">
         <v>2.220446008079375e-14</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F14" t="n">
         <v>1.139230174586238e-07</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G14" t="n">
         <v>0.9999994315856907</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>f__Peptoniphilaceae</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>f__Peptoniphilaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91866.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.06390333565106432</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2989445139074004</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01008423145424333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.904225174202106e-13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6270679189869015</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6270679189869015</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Tissierellaceae</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>f__Tissierellaceae(reject)</t>
         </is>
       </c>
     </row>
